--- a/biology/Zoologie/Hyperolius_kuligae/Hyperolius_kuligae.xlsx
+++ b/biology/Zoologie/Hyperolius_kuligae/Hyperolius_kuligae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyperolius kuligae est une espèce d'amphibiens de la famille des Hyperoliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyperolius kuligae est une espèce d'amphibiens de la famille des Hyperoliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Cameroun, au Gabon et en Ouganda. Elle pourrait être présente en République centrafricaine, en République du Congo, en République démocratique du Congo et en Guinée équatoriale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Cameroun, au Gabon et en Ouganda. Elle pourrait être présente en République centrafricaine, en République du Congo, en République démocratique du Congo et en Guinée équatoriale.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mertens, 1940 : Amphibien aus Kamerun gesammelt von M. Köhler und Dr. H. Graf. Senckenbergiana Biologica, vol. 22, p. 103-135.</t>
         </is>
